--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Delhi Capitals/Anrich Nortje.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Delhi Capitals/Anrich Nortje.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,9 +590,184 @@
         <v>KKR won by 59 runs</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>300.00</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Sep 20 2020</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>-</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K8" t="str">
+        <v>KKR won by 59 runs</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>-</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Nov 5 2020</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Mumbai won by 57 runs</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>33.33</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oct 27 2020</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Sunrisers won by 88 runs</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Anrich Nortje</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D11" t="str">
+        <v>3</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Sep 29 2020</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Sunrisers won by 15 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>